--- a/现金流量表/688698.xlsx
+++ b/现金流量表/688698.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>SECUCODE</t>
   </si>
@@ -166,10 +166,16 @@
     <t>688698</t>
   </si>
   <si>
+    <t>016020</t>
+  </si>
+  <si>
     <t>10000066823</t>
   </si>
   <si>
     <t>伟创电气</t>
+  </si>
+  <si>
+    <t>输配电气</t>
   </si>
   <si>
     <t>kcb</t>
@@ -707,35 +713,41 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O2">
         <v>47542984.69</v>

--- a/现金流量表/688698.xlsx
+++ b/现金流量表/688698.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>47542984.69</v>
+        <v>33823349.92</v>
       </c>
       <c r="P2" t="n">
-        <v>237.0134026484</v>
+        <v>273.857785228</v>
       </c>
       <c r="Q2" t="n">
-        <v>226353711.01</v>
+        <v>208212588.59</v>
       </c>
       <c r="R2" t="n">
-        <v>1128.4285914815</v>
+        <v>1685.8365153868</v>
       </c>
       <c r="S2" t="n">
-        <v>77766114.73</v>
+        <v>87655458.06</v>
       </c>
       <c r="T2" t="n">
-        <v>387.683095268</v>
+        <v>709.7206416346</v>
       </c>
       <c r="U2" t="n">
-        <v>-24139770.17</v>
+        <v>4561392.31</v>
       </c>
       <c r="V2" t="n">
-        <v>-120.3426563235</v>
+        <v>36.9322612493</v>
       </c>
       <c r="W2" t="n">
-        <v>265424.91</v>
+        <v>588716.66</v>
       </c>
       <c r="X2" t="n">
-        <v>1.3232080711</v>
+        <v>4.7666668445</v>
       </c>
       <c r="Y2" t="n">
-        <v>17965422.46</v>
+        <v>8027424.35</v>
       </c>
       <c r="Z2" t="n">
-        <v>89.5620233989</v>
+        <v>64.9957103237</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3191632.32</v>
+        <v>-25364228.93</v>
       </c>
       <c r="AB2" t="n">
-        <v>-15.9110674498</v>
+        <v>-205.3667532996</v>
       </c>
       <c r="AC2" t="n">
-        <v>20059196.72</v>
+        <v>12350698.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>259.7686252489</v>
+        <v>165.3346002479</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/688698.xlsx
+++ b/现金流量表/688698.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,61 +739,61 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-10 00:00:00</t>
+          <t>2020-12-24 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>33823349.92</v>
+        <v>70842023.90000001</v>
       </c>
       <c r="P2" t="n">
-        <v>273.857785228</v>
+        <v>297.1404314633</v>
       </c>
       <c r="Q2" t="n">
-        <v>208212588.59</v>
+        <v>289711185.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1685.8365153868</v>
+        <v>1215.1672383314</v>
       </c>
       <c r="S2" t="n">
-        <v>87655458.06</v>
+        <v>88933557.12</v>
       </c>
       <c r="T2" t="n">
-        <v>709.7206416346</v>
+        <v>373.0237234824</v>
       </c>
       <c r="U2" t="n">
-        <v>4561392.31</v>
+        <v>-17009017.03</v>
       </c>
       <c r="V2" t="n">
-        <v>36.9322612493</v>
+        <v>-71.342776234</v>
       </c>
       <c r="W2" t="n">
-        <v>588716.66</v>
+        <v>493469.88</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7666668445</v>
+        <v>2.0698145675</v>
       </c>
       <c r="Y2" t="n">
-        <v>8027424.35</v>
+        <v>5512086.91</v>
       </c>
       <c r="Z2" t="n">
-        <v>64.9957103237</v>
+        <v>23.1199476318</v>
       </c>
       <c r="AA2" t="n">
-        <v>-25364228.93</v>
+        <v>-30069249.97</v>
       </c>
       <c r="AB2" t="n">
-        <v>-205.3667532996</v>
+        <v>-126.1227364492</v>
       </c>
       <c r="AC2" t="n">
-        <v>12350698.7</v>
+        <v>23841260.36</v>
       </c>
       <c r="AD2" t="n">
-        <v>165.3346002479</v>
+        <v>18.8545119368</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/688698.xlsx
+++ b/现金流量表/688698.xlsx
@@ -744,57 +744,51 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>70842023.90000001</v>
+        <v>-10381535.22</v>
       </c>
       <c r="P2" t="n">
-        <v>297.1404314633</v>
+        <v>-82.68743924419999</v>
       </c>
       <c r="Q2" t="n">
-        <v>289711185.1</v>
+        <v>185328536.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1215.1672383314</v>
+        <v>1476.1152147282</v>
       </c>
       <c r="S2" t="n">
-        <v>88933557.12</v>
+        <v>66961358.53</v>
       </c>
       <c r="T2" t="n">
-        <v>373.0237234824</v>
+        <v>533.3376179748</v>
       </c>
       <c r="U2" t="n">
-        <v>-17009017.03</v>
+        <v>-30135332</v>
       </c>
       <c r="V2" t="n">
-        <v>-71.342776234</v>
-      </c>
-      <c r="W2" t="n">
-        <v>493469.88</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.0698145675</v>
-      </c>
+        <v>-240.0235977674</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>5512086.91</v>
+        <v>11386621.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.1199476318</v>
+        <v>90.69280812460001</v>
       </c>
       <c r="AA2" t="n">
-        <v>-30069249.97</v>
+        <v>28206889.16</v>
       </c>
       <c r="AB2" t="n">
-        <v>-126.1227364492</v>
+        <v>224.6638270987</v>
       </c>
       <c r="AC2" t="n">
-        <v>23841260.36</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>18.8545119368</v>
-      </c>
+        <v>-12555153.86</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
